--- a/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 50,36</t>
+          <t>31,51; 50,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,87; 53,9</t>
+          <t>33,74; 53,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,45; 40,89</t>
+          <t>23,93; 41,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,7; 32,3</t>
+          <t>19,89; 32,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,61; 42,62</t>
+          <t>30,34; 43,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 39,39</t>
+          <t>28,13; 39,1</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,64; 42,14</t>
+          <t>34,04; 42,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,95; 36,11</t>
+          <t>27,95; 35,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 33,52</t>
+          <t>25,18; 33,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 21,23</t>
+          <t>16,39; 21,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,74; 36,4</t>
+          <t>30,9; 36,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,41; 27,28</t>
+          <t>22,8; 27,53</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,06; 39,22</t>
+          <t>33,3; 39,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,55; 24,63</t>
+          <t>18,14; 24,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,61; 26,88</t>
+          <t>21,54; 27,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 19,14</t>
+          <t>15,2; 19,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,83; 32,09</t>
+          <t>28,02; 32,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,51; 21,17</t>
+          <t>17,45; 21,33</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,62; 45,4</t>
+          <t>37,26; 45,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,27</t>
+          <t>24,74; 32,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,63; 31,33</t>
+          <t>24,5; 31,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 17,61</t>
+          <t>9,51; 17,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,89; 36,94</t>
+          <t>31,77; 36,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,5</t>
+          <t>16,54; 23,46</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,66; 28,53</t>
+          <t>22,91; 28,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,89</t>
+          <t>18,62; 24,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,76</t>
+          <t>14,7; 19,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,09; 15,6</t>
+          <t>12,2; 15,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,09</t>
+          <t>19,11; 23,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,84</t>
+          <t>15,71; 18,65</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,4</t>
+          <t>33,07; 36,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,44; 26,92</t>
+          <t>23,57; 26,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,62; 25,47</t>
+          <t>22,31; 25,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,43; 17,21</t>
+          <t>14,42; 17,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,13; 30,36</t>
+          <t>28,11; 30,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,27; 21,5</t>
+          <t>19,12; 21,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,51; 50,05</t>
+          <t>31,97; 50,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,93; 41,8</t>
+          <t>24,46; 41,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,34; 43,01</t>
+          <t>30,19; 42,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,04; 42,11</t>
+          <t>34,03; 42,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,18; 33,41</t>
+          <t>25,5; 33,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,9; 36,95</t>
+          <t>30,71; 36,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,3; 39,55</t>
+          <t>33,28; 39,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,54; 27,13</t>
+          <t>21,64; 26,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,02; 32,34</t>
+          <t>27,97; 31,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,26; 45,29</t>
+          <t>37,29; 45,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,25</t>
+          <t>24,5; 31,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,77; 36,93</t>
+          <t>32,06; 36,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,91; 28,59</t>
+          <t>22,73; 28,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,7; 19,42</t>
+          <t>14,39; 19,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,11; 23,06</t>
+          <t>19,28; 22,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,41</t>
+          <t>33,11; 36,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,31; 25,51</t>
+          <t>22,44; 25,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,11; 30,4</t>
+          <t>28,08; 30,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,97; 50,59</t>
+          <t>31,45; 50,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,74; 53,61</t>
+          <t>33,87; 53,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,46; 41,67</t>
+          <t>23,45; 40,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,89; 32,12</t>
+          <t>19,7; 32,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,19; 42,8</t>
+          <t>30,61; 42,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,13; 39,1</t>
+          <t>27,97; 39,39</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,03; 42,17</t>
+          <t>33,64; 42,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,95; 35,77</t>
+          <t>27,95; 36,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,5; 33,33</t>
+          <t>25,71; 33,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 21,52</t>
+          <t>16,27; 21,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,71; 36,46</t>
+          <t>30,74; 36,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,53</t>
+          <t>22,41; 27,28</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,28; 39,47</t>
+          <t>33,06; 39,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 24,73</t>
+          <t>17,55; 24,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,64; 26,95</t>
+          <t>21,61; 26,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 19,27</t>
+          <t>15,16; 19,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,97; 31,97</t>
+          <t>27,83; 32,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 21,33</t>
+          <t>17,51; 21,17</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,29; 45,22</t>
+          <t>37,62; 45,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,74; 32,46</t>
+          <t>24,91; 32,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,14</t>
+          <t>24,63; 31,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 17,82</t>
+          <t>8,86; 17,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,06; 36,78</t>
+          <t>31,89; 36,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,54; 23,46</t>
+          <t>15,93; 23,5</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,73; 28,4</t>
+          <t>22,66; 28,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,62; 24,05</t>
+          <t>18,46; 23,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,39; 19,41</t>
+          <t>14,6; 19,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,2; 15,8</t>
+          <t>12,09; 15,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,28; 22,9</t>
+          <t>19,35; 23,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,71; 18,65</t>
+          <t>15,68; 18,84</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,11; 36,46</t>
+          <t>33,07; 36,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,57; 26,94</t>
+          <t>23,44; 26,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,44; 25,43</t>
+          <t>22,62; 25,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,21</t>
+          <t>14,43; 17,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,08; 30,4</t>
+          <t>28,13; 30,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,12; 21,46</t>
+          <t>19,27; 21,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>26,76%</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 50,36</t>
+          <t>34,21; 42,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,87; 53,9</t>
+          <t>30,21; 37,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,45; 40,89</t>
+          <t>26,42; 33,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,7; 32,3</t>
+          <t>17,88; 22,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,61; 42,62</t>
+          <t>31,33; 36,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 39,39</t>
+          <t>24,62; 29,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,64; 42,14</t>
+          <t>33,06; 39,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,95; 36,11</t>
+          <t>9,33; 24,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,71; 33,52</t>
+          <t>21,61; 26,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 21,23</t>
+          <t>15,37; 19,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,74; 36,4</t>
+          <t>27,83; 32,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,41; 27,28</t>
+          <t>11,86; 21,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,48%</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,06; 39,22</t>
+          <t>37,62; 45,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,55; 24,63</t>
+          <t>24,82; 32,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,61; 26,88</t>
+          <t>24,63; 31,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 19,14</t>
+          <t>6,29; 17,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,83; 32,09</t>
+          <t>31,89; 36,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,51; 21,17</t>
+          <t>12,22; 23,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>16,99%</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,62; 45,4</t>
+          <t>22,66; 28,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,27</t>
+          <t>18,56; 24,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,63; 31,33</t>
+          <t>14,6; 19,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 17,61</t>
+          <t>10,74; 15,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,89; 36,94</t>
+          <t>19,35; 23,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,5</t>
+          <t>14,97; 18,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,66; 28,53</t>
+          <t>33,07; 36,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,89</t>
+          <t>18,46; 26,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,76</t>
+          <t>22,62; 25,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,09; 15,6</t>
+          <t>12,62; 16,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,09</t>
+          <t>28,13; 30,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,84</t>
+          <t>17,13; 21,31</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>34,8%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,27%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>23,92%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16,11%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,23%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>33,07; 36,4</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>23,44; 26,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>22,62; 25,47</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,43; 17,21</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>28,13; 30,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>19,27; 21,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,21; 42,03</t>
+          <t>34,76; 42,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,21; 37,87</t>
+          <t>30,22; 38,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 33,55</t>
+          <t>26,56; 33,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 22,78</t>
+          <t>17,87; 22,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,33; 36,82</t>
+          <t>31,39; 36,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,62; 29,09</t>
+          <t>24,62; 28,97</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,06; 39,22</t>
+          <t>32,92; 39,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 24,67</t>
+          <t>10,18; 24,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,61; 26,88</t>
+          <t>21,46; 26,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,37; 19,45</t>
+          <t>15,5; 19,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 32,09</t>
+          <t>27,99; 32,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 21,04</t>
+          <t>11,76; 21,04</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,62; 45,4</t>
+          <t>37,13; 45,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,82; 32,35</t>
+          <t>24,71; 32,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,63; 31,33</t>
+          <t>24,61; 31,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 17,0</t>
+          <t>6,84; 17,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,89; 36,94</t>
+          <t>32,24; 37,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 23,1</t>
+          <t>12,96; 23,27</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,66; 28,53</t>
+          <t>22,65; 28,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 24,07</t>
+          <t>18,73; 24,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,76</t>
+          <t>14,43; 19,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 15,25</t>
+          <t>10,51; 15,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,09</t>
+          <t>18,96; 22,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,97; 18,72</t>
+          <t>14,89; 18,62</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,4</t>
+          <t>33,14; 36,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 26,56</t>
+          <t>18,78; 26,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 25,47</t>
+          <t>22,56; 25,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,62; 16,92</t>
+          <t>12,86; 16,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,13; 30,36</t>
+          <t>28,14; 30,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,31</t>
+          <t>17,03; 21,28</t>
         </is>
       </c>
     </row>
@@ -1009,4 +1010,714 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se cepilla los dientes una o ninguna vez al día</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>251270</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>212573</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>197237</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>135188</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>448507</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>347761</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>227158; 276444</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>190115; 239160</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>175248; 220879</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>119802; 153826</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>412332; 481729</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>319895; 376426</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>363484</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>222677</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>248081</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>166593</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>611564</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>389270</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>331011; 395451</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>121241; 292095</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>220908; 275381</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>147550; 185256</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>569614; 655642</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>252188; 451069</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>298477</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>199481</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>209088</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>119009</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>507565</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>318490</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>267915; 325381</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>173920; 226371</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>184538; 234256</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>63702; 162103</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>474499; 545017</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>211865; 380445</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>234376</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>196628</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>172237</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144525</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>406613</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>341153</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>207774; 260527</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>172517; 221712</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>146669; 197520</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>114288; 164279</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>366567; 439868</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>299082; 373904</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1860</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1147607</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>831359</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>826642</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>565315</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1974249</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1396675</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1092862; 1205256</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>647156; 915610</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>779455; 872098</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>468059; 617864</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1900490; 2047522</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1206988; 1507856</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>